--- a/tests/system_test_1.xlsx
+++ b/tests/system_test_1.xlsx
@@ -821,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1059,7 +1059,7 @@
         <v>7</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1110,7 +1110,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1178,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="E24">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1365,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="E35">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1637,7 +1637,7 @@
         <v>7</v>
       </c>
       <c r="E51">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1756,7 +1756,7 @@
         <v>7</v>
       </c>
       <c r="E58">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1909,7 +1909,7 @@
         <v>7</v>
       </c>
       <c r="E67">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2147,7 +2147,7 @@
         <v>7</v>
       </c>
       <c r="E81">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2385,7 +2385,7 @@
         <v>7</v>
       </c>
       <c r="E95">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2703,7 +2703,7 @@
         <v>132</v>
       </c>
       <c r="B122">
-        <v>10.20408163265306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2711,7 +2711,7 @@
         <v>133</v>
       </c>
       <c r="B123">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2727,7 +2727,7 @@
         <v>135</v>
       </c>
       <c r="B125">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2735,7 +2735,7 @@
         <v>136</v>
       </c>
       <c r="B126">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:3">
